--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\GitHub\aspnet\benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest" sheetId="4" r:id="rId1"/>
     <sheet name="ASP.NET 5 Results" sheetId="1" r:id="rId2"/>
     <sheet name="Experimentals" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ASP.NET 5 Results'!$A$1:$W$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
   <si>
     <t>Run #</t>
   </si>
@@ -106,9 +109,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>10s</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
@@ -146,13 +146,40 @@
   </si>
   <si>
     <t>WebListener</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>CoreCLR</t>
+  </si>
+  <si>
+    <t>Duration (secs)</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>perfsvr</t>
+  </si>
+  <si>
+    <t>perfsvr2</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +189,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,17 +220,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,42 +512,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6328125" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -569,12 +606,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -600,16 +637,19 @@
       <c r="J2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>443528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -620,13 +660,16 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -656,15 +699,15 @@
         <v>107315</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -675,13 +718,16 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -711,12 +757,12 @@
         <v>65383</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -725,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -746,12 +792,12 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -760,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -781,9 +827,12 @@
         <v>144118</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -798,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -809,13 +858,16 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>176509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -841,7 +893,71 @@
       <c r="J10">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>1024</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>176509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1024</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
         <v>1514942</v>
       </c>
     </row>
@@ -853,36 +969,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6328125" customWidth="1"/>
-    <col min="21" max="21" width="9.54296875" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" customWidth="1"/>
+    <col min="2" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,204 +1007,520 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>42256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
         <v>512</v>
       </c>
-      <c r="I2">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>32</v>
       </c>
       <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
         <v>16</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>169984</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42272</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
         <v>512</v>
       </c>
-      <c r="I3">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
+      <c r="J3">
+        <v>32</v>
       </c>
       <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
         <v>16</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>273000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>42277</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
         <v>512</v>
       </c>
-      <c r="I4">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
+      <c r="J4">
+        <v>32</v>
       </c>
       <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>16</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>391000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>42283</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
         <v>256</v>
       </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
+      <c r="J5">
+        <v>32</v>
       </c>
       <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>435000</v>
       </c>
     </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>256</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>66862</v>
+      </c>
+      <c r="N6">
+        <v>93.78</v>
+      </c>
+      <c r="O6">
+        <v>91.65</v>
+      </c>
+      <c r="P6">
+        <v>404.9</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.8085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>1024</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>221495</v>
+      </c>
+      <c r="N7">
+        <v>41.7</v>
+      </c>
+      <c r="O7">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="P7">
+        <v>606.17999999999995</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>256</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>443528</v>
+      </c>
+      <c r="N8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O8">
+        <v>2.84</v>
+      </c>
+      <c r="P8">
+        <v>53.47</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.63549999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>256</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>443083</v>
+      </c>
+      <c r="N9">
+        <v>5.16</v>
+      </c>
+      <c r="O9">
+        <v>2.83</v>
+      </c>
+      <c r="P9">
+        <v>63.72</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.63070000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>256</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>428871</v>
+      </c>
+      <c r="N10">
+        <v>5.33</v>
+      </c>
+      <c r="O10">
+        <v>2.93</v>
+      </c>
+      <c r="P10">
+        <v>52.39</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.6341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>256</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>421353</v>
+      </c>
+      <c r="N11">
+        <v>5.46</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+      <c r="P11">
+        <v>64.3</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:W1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1104,29 +1534,28 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Latest (Pivot)" sheetId="5" r:id="rId1"/>
     <sheet name="Latest" sheetId="4" r:id="rId2"/>
-    <sheet name="ASP.NET 5 Results" sheetId="1" r:id="rId3"/>
-    <sheet name="Experimentals" sheetId="2" r:id="rId4"/>
+    <sheet name="ASP.NET 5 (Pivot)" sheetId="7" r:id="rId3"/>
+    <sheet name="ASP.NET 5 Results" sheetId="1" r:id="rId4"/>
+    <sheet name="Experimentals" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ASP.NET 5 Results'!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ASP.NET 5 Results'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="27" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +182,12 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Sum of RPS Avg</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
     <t>RPS</t>
   </si>
 </sst>
@@ -187,6 +195,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,11 +239,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,8 +259,16 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -489,7 +509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$B$3</c:f>
+              <c:f>'Latest (Pivot)'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,40 +589,28 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$B$3</c:f>
+              <c:f>'Latest (Pivot)'!$A$5:$A$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ASP.NET 4.6</c:v>
+                    <c:v>NodeJS</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>NodeJS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ASP.NET 5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>Scala</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>IIS</c:v>
+                    <c:v>Node</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>WebListener</c:v>
+                    <c:v>Kestrel</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Node</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Kestrel</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>Scala</c:v>
                   </c:pt>
                 </c:lvl>
@@ -611,24 +619,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$B$3</c:f>
+              <c:f>'Latest (Pivot)'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>65383</c:v>
+                  <c:v>144118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107315</c:v>
+                  <c:v>443528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>443528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1691451</c:v>
+                  <c:v>1514942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +809,2520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latest!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPS Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>x86</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x86</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x86</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Latest!$K$2:$K$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Latest!$K$2:$K$8,Latest!$K$11:$K$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>65383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1514942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="556496072"/>
+        <c:axId val="556498032"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Connections</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>CoreCLR</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>IIS</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>WebListener</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Kestrel</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>ASP.NET 4.6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$G$2:$G$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$G$2:$G$8,Latest!$G$11:$G$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>wrk Threads</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>CoreCLR</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>IIS</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>WebListener</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Kestrel</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>ASP.NET 4.6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$H$2:$H$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$H$2:$H$8,Latest!$H$11:$H$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Duration</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>CoreCLR</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>IIS</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>WebListener</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Kestrel</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>ASP.NET 4.6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$I$2:$I$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$I$2:$I$8,Latest!$I$11:$I$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pipeline Depth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>x86</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>x64</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>CLR</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>CoreCLR</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Java</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>V8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Windows Server 2012</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>plaintext</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>IIS</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>WebListener</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Kestrel</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>Node</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>ASP.NET 4.6</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>ASP.NET 5</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Scala</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>NodeJS</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Latest!$J$2:$J$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$J$2:$J$8,Latest!$J$11:$J$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556496072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556498032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556498032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556496072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]ASP.NET 5 (Pivot)!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$B$6:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux - CoreCLR - x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>221495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$C$6:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux - Mono - n/a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>66862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$D$6:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Server 2012 - CLR - x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>421353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$E$6:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Server 2012 - CLR - x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>169984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>428871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$F$6:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Server 2012 - CoreCLR - x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>443083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$G$6:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows Server 2012 - CoreCLR - x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9/9/2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9/25/2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/30/2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/6/2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/8/2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ASP.NET 5 (Pivot)'!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>443528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="546116040"/>
+        <c:axId val="546109768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546116040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546109768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546109768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546116040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1350,6 +3865,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1364,6 +4885,76 @@
       <xdr:colOff>730250</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1434,7 +5025,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
     </cacheField>
     <cacheField name="Pipeline Depth" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="3">
+        <n v="16"/>
+        <m/>
+        <n v="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="RPS Avg" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="65383" maxValue="1514942"/>
@@ -1478,6 +5073,80 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42285.933490393516" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L11" sheet="ASP.NET 5 Results"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-09-09T00:00:00" maxDate="2015-10-09T00:00:00" count="5">
+        <d v="2015-09-09T00:00:00"/>
+        <d v="2015-09-25T00:00:00"/>
+        <d v="2015-09-30T00:00:00"/>
+        <d v="2015-10-06T00:00:00"/>
+        <d v="2015-10-08T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Benchmark" numFmtId="0">
+      <sharedItems count="1">
+        <s v="plaintext"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Machine" numFmtId="14">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Platform" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Windows Server 2012"/>
+        <s v="Linux"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Runtime" numFmtId="0">
+      <sharedItems count="3">
+        <s v="CLR"/>
+        <s v="Mono"/>
+        <s v="CoreCLR"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Architecture" numFmtId="0">
+      <sharedItems count="3">
+        <s v="x86"/>
+        <s v="n/a"/>
+        <s v="x64"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Server" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Kestrel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Connections" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="256" maxValue="1024"/>
+    </cacheField>
+    <cacheField name="wrk Threads" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Duration (secs)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Pipeline Depth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16" count="1">
+        <n v="16"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RPS Avg" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="66862" maxValue="443528"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
   <r>
@@ -1490,7 +5159,7 @@
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="16"/>
+    <x v="0"/>
     <n v="443528"/>
     <m/>
     <m/>
@@ -1513,7 +5182,7 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -1536,7 +5205,7 @@
     <n v="512"/>
     <n v="8"/>
     <n v="10"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="107315"/>
     <m/>
     <m/>
@@ -1559,7 +5228,7 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -1582,7 +5251,7 @@
     <n v="512"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="65383"/>
     <m/>
     <m/>
@@ -1605,7 +5274,7 @@
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="93000"/>
     <m/>
     <m/>
@@ -1628,7 +5297,7 @@
     <n v="1024"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="16"/>
+    <x v="0"/>
     <n v="144118"/>
     <m/>
     <m/>
@@ -1651,7 +5320,7 @@
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -1674,7 +5343,7 @@
     <n v="1024"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="16"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -1697,7 +5366,7 @@
     <n v="1024"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="176509"/>
     <m/>
     <m/>
@@ -1720,7 +5389,7 @@
     <n v="1024"/>
     <n v="32"/>
     <n v="10"/>
-    <n v="16"/>
+    <x v="0"/>
     <n v="1514942"/>
     <m/>
     <m/>
@@ -1732,13 +5401,158 @@
     <m/>
     <m/>
     <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="169984"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="273000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="391000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="435000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="66862"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1024"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="221495"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="443528"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="443083"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="428871"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="421353"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="5">
@@ -1791,7 +5605,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1808,19 +5629,7 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
+  <rowItems count="7">
     <i>
       <x v="2"/>
     </i>
@@ -1846,8 +5655,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="2" hier="-1"/>
+    <pageField fld="9" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="RPS" fld="10" baseField="0" baseItem="0"/>
@@ -1858,6 +5668,273 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A6:G15" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="6" item="0" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="10" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of RPS Avg" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2135,15 +6212,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" customWidth="1"/>
     <col min="4" max="4" width="13.36328125" customWidth="1"/>
@@ -2169,104 +6246,82 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(B1, " ", B3)</f>
+        <f>CONCATENATE(B1, " ", B4)</f>
         <v>plaintext RPS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9">
-        <v>65383</v>
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="9">
-        <v>65383</v>
+        <v>144118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>37</v>
+      <c r="A6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="9">
-        <v>107315</v>
+        <v>144118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
+      <c r="A7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="9">
-        <v>107315</v>
+        <v>443528</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
+      <c r="A8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="9">
-        <v>237118</v>
+        <v>443528</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
+      <c r="A9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="9">
-        <v>237118</v>
+        <v>1514942</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
+      <c r="A10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="9">
-        <v>443528</v>
+        <v>1514942</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
+      <c r="A11" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="9">
-        <v>443528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1691451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1691451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2544795</v>
+        <v>2102588</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +6335,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2290,11 +6345,11 @@
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.453125" customWidth="1"/>
     <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -2325,7 +6380,7 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2337,7 +6392,7 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2373,25 +6428,25 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>256</v>
+      <c r="G2" s="13">
+        <v>512</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -2400,30 +6455,45 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>443528</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>65383</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13">
+        <v>256</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="K3" s="11">
+        <v>93000</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -2445,7 +6515,7 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>512</v>
       </c>
       <c r="H4">
@@ -2457,36 +6527,51 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>107315</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1024</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11">
+        <v>144118</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2495,13 +6580,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>512</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1024</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2512,30 +6597,30 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>65383</v>
+      <c r="K6" s="11">
+        <v>176509</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
         <v>256</v>
       </c>
       <c r="H7">
@@ -2545,18 +6630,18 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>93000</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="11">
+        <v>443528</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2565,12 +6650,12 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>1024</v>
       </c>
       <c r="H8">
@@ -2582,80 +6667,56 @@
       <c r="J8">
         <v>16</v>
       </c>
-      <c r="K8">
-        <v>144118</v>
+      <c r="K8" s="11">
+        <v>1514942</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>256</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>1024</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -2664,33 +6725,18 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
-      </c>
-      <c r="G11">
-        <v>1024</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>176509</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2699,40 +6745,237 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>1024</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>1514942</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:U12">
+    <sortState ref="A2:U12">
+      <sortCondition ref="K1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>42256</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>169984</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>42272</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>273000</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>42277</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>391000</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>42283</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>435000</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>42285</v>
+      </c>
+      <c r="B14" s="9">
+        <v>221495</v>
+      </c>
+      <c r="C14" s="9">
+        <v>66862</v>
+      </c>
+      <c r="D14" s="9">
+        <v>421353</v>
+      </c>
+      <c r="E14" s="9">
+        <v>428871</v>
+      </c>
+      <c r="F14" s="9">
+        <v>443083</v>
+      </c>
+      <c r="G14" s="9">
+        <v>443528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9">
+        <v>221495</v>
+      </c>
+      <c r="C15" s="9">
+        <v>66862</v>
+      </c>
+      <c r="D15" s="9">
+        <v>421353</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1697855</v>
+      </c>
+      <c r="F15" s="9">
+        <v>443083</v>
+      </c>
+      <c r="G15" s="9">
+        <v>443528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3283,7 +7526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\github\aspnet\benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Latest (Pivot)" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ASP.NET 5 Results'!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
-    <pivotCache cacheId="27" r:id="rId7"/>
+    <pivotCache cacheId="70" r:id="rId6"/>
+    <pivotCache cacheId="78" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -179,22 +179,25 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of RPS Avg</t>
-  </si>
-  <si>
     <t>Column Labels</t>
   </si>
   <si>
     <t>RPS</t>
   </si>
+  <si>
+    <t>perfsv2</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Average of RPS Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -286,7 +289,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -306,11 +309,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Latest (Pivot)'!$D$3</c:f>
+          <c:f>'Latest (Pivot)'!$A$5</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>plaintext RPS</c:v>
+              <c:v>RPS</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -497,6 +500,36 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -509,11 +542,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$B$4</c:f>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>1 - x64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -528,89 +561,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$A$5:$A$11</c:f>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>NodeJS</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Scala</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>Node</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Kestrel</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>Scala</c:v>
                   </c:pt>
                 </c:lvl>
@@ -619,22 +605,297 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$B$5:$B$11</c:f>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>144118</c:v>
+                  <c:v>57843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>443528</c:v>
+                  <c:v>117124.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1514942</c:v>
+                  <c:v>123808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2B8-4359-9B43-7DD91AC40764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 - x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2B8-4359-9B43-7DD91AC40764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 - x64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1514942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C2B8-4359-9B43-7DD91AC40764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 - x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Scala</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51290</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>443528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C2B8-4359-9B43-7DD91AC40764}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -764,1597 +1025,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Latest!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RPS Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>x86</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x86</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>x64</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CLR</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>V8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CLR</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>V8</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Java</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>CoreCLR</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Java</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>V8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>V8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Windows Server 2012</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>plaintext</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>IIS</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Node</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>WebListener</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Node</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Scala</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Kestrel</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Scala</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Node</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Node</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ASP.NET 4.6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>NodeJS</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>ASP.NET 5</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NodeJS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Scala</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ASP.NET 5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Scala</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>NodeJS</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>NodeJS</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Latest!$K$2:$K$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Latest!$K$2:$K$8,Latest!$K$11:$K$12)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>65383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176509</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>443528</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1514942</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="556496072"/>
-        <c:axId val="556498032"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Connections</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="9"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>CoreCLR</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>IIS</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>WebListener</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Kestrel</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>ASP.NET 4.6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$G$2:$G$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$G$2:$G$8,Latest!$G$11:$G$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>wrk Threads</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="9"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>CoreCLR</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>IIS</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>WebListener</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Kestrel</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>ASP.NET 4.6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$H$2:$H$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$H$2:$H$8,Latest!$H$11:$H$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$I$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Duration</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="9"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>CoreCLR</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>IIS</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>WebListener</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Kestrel</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>ASP.NET 4.6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$I$2:$I$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$I$2:$I$8,Latest!$I$11:$I$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$J$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Pipeline Depth</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$A$2:$F$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$F$8,Latest!$A$11:$F$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="9"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>x86</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>x64</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>CLR</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>CoreCLR</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Java</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>V8</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Windows Server 2012</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>plaintext</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>IIS</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>WebListener</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Kestrel</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>Node</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>ASP.NET 4.6</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>ASP.NET 5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Scala</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>NodeJS</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Latest!$J$2:$J$12</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$J$2:$J$8,Latest!$J$11:$J$12)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="556496072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="556498032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="556498032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="556496072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
@@ -2421,11 +1091,1430 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latest!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPS Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>ASP.NET 4.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASP.NET 4.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASP.NET 4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASP.NET 4.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ASP.NET 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NodeJS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ASP.NET 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASP.NET 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NodeJS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASP.NET 5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ASP.NET 5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latest!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>51379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>443528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1514942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FEEB-41F9-921F-AD6E752578BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="624117456"/>
+        <c:axId val="624119752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Connections</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$G$2:$G$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FEEB-41F9-921F-AD6E752578BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>wrk Threads</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$H$2:$H$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>32</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FEEB-41F9-921F-AD6E752578BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Duration</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$I$2:$I$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FEEB-41F9-921F-AD6E752578BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pipeline Depth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ASP.NET 4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>NodeJS</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>ASP.NET 5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Scala</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Latest!$J$2:$J$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FEEB-41F9-921F-AD6E752578BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="624117456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624119752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624119752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624117456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2462,6 +2551,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2477,6 +2569,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2492,6 +2587,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2507,6 +2605,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2522,6 +2623,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2537,6 +2641,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2552,6 +2659,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2567,6 +2677,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2582,6 +2695,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2639,6 +2755,426 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2675,7 +3211,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -2690,6 +3226,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2699,14 +3238,22 @@
               <c:f>'ASP.NET 5 (Pivot)'!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
                   <c:v>221495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2738,7 +3285,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -2753,6 +3300,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2762,7 +3312,7 @@
               <c:f>'ASP.NET 5 (Pivot)'!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
                   <c:v>66862</c:v>
                 </c:pt>
@@ -2770,6 +3320,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2801,7 +3356,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -2816,6 +3371,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,7 +3383,7 @@
               <c:f>'ASP.NET 5 (Pivot)'!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
                   <c:v>421353</c:v>
                 </c:pt>
@@ -2833,6 +3391,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2864,7 +3427,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -2879,6 +3442,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2888,7 +3454,7 @@
               <c:f>'ASP.NET 5 (Pivot)'!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>169984</c:v>
                 </c:pt>
@@ -2908,6 +3474,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2939,7 +3510,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -2954,6 +3525,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2963,7 +3537,7 @@
               <c:f>'ASP.NET 5 (Pivot)'!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
                   <c:v>443083</c:v>
                 </c:pt>
@@ -2971,6 +3545,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3002,7 +3581,7 @@
             <c:strRef>
               <c:f>'ASP.NET 5 (Pivot)'!$A$10:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9/9/2015</c:v>
                 </c:pt>
@@ -3017,6 +3596,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10/8/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/9/2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3026,7 +3608,7 @@
               <c:f>'ASP.NET 5 (Pivot)'!$G$10:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="4">
                   <c:v>443528</c:v>
                 </c:pt>
@@ -3034,6 +3616,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-6DB1-4664-88EA-B5D360D822AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3866,7 +4453,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4070,22 +4657,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4190,8 +4778,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4323,19 +4911,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4876,14 +5465,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4911,19 +5500,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4977,25 +5566,131 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42285.876147916664" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="11">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42286.719799652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:U12" sheet="Latest"/>
+    <worksheetSource ref="K4" sheet="ASP.NET 5 Results"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2015-09-09T00:00:00" maxDate="2015-10-10T00:00:00" count="7">
+        <d v="2015-09-09T00:00:00"/>
+        <d v="2015-09-25T00:00:00"/>
+        <d v="2015-09-30T00:00:00"/>
+        <d v="2015-10-06T00:00:00"/>
+        <d v="2015-10-08T00:00:00"/>
+        <d v="2015-10-09T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Benchmark" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="plaintext"/>
+        <s v="json"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Machine" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Platform" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Windows Server 2012"/>
+        <s v="Linux"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Runtime" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="CLR"/>
+        <s v="Mono"/>
+        <s v="CoreCLR"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Architecture" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="x86"/>
+        <s v="n/a"/>
+        <s v="x64"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Server" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Kestrel"/>
+        <s v="WebListener"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Connections" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="128" maxValue="1024"/>
+    </cacheField>
+    <cacheField name="wrk Threads" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Duration (secs)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Pipeline Depth" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="3">
+        <n v="16"/>
+        <n v="1"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RPS Avg" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="64669" maxValue="443528" count="20">
+        <n v="169984"/>
+        <n v="273000"/>
+        <n v="391000"/>
+        <n v="435000"/>
+        <n v="66862"/>
+        <n v="221495"/>
+        <n v="443528"/>
+        <n v="443083"/>
+        <n v="428871"/>
+        <n v="421353"/>
+        <n v="93425"/>
+        <n v="319007"/>
+        <n v="64669"/>
+        <n v="76503"/>
+        <n v="66854"/>
+        <n v="123808"/>
+        <n v="124262"/>
+        <n v="119824"/>
+        <n v="119546"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42286.759373958332" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="14">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:U15" sheet="Latest"/>
   </cacheSource>
   <cacheFields count="21">
     <cacheField name="Stack" numFmtId="0">
       <sharedItems count="4">
+        <s v="ASP.NET 4.6"/>
         <s v="ASP.NET 5"/>
-        <s v="ASP.NET 4.6"/>
         <s v="NodeJS"/>
         <s v="Scala"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Server" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
+        <s v="IIS"/>
         <s v="Kestrel"/>
+        <s v="Node"/>
         <s v="WebListener"/>
-        <s v="IIS"/>
-        <s v="Node"/>
         <s v="Scala"/>
         <m u="1"/>
       </sharedItems>
@@ -5010,29 +5705,36 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Runtime" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="CLR"/>
+        <s v="CoreCLR"/>
+        <s v="V8"/>
+        <s v="Java"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Architecture" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="x86"/>
+        <s v="x64"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Connections" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="256" maxValue="1024"/>
+    <cacheField name="Connections" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="256" maxValue="1024"/>
     </cacheField>
     <cacheField name="wrk Threads" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
     </cacheField>
     <cacheField name="Duration" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
     </cacheField>
     <cacheField name="Pipeline Depth" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="2">
+        <n v="1"/>
         <n v="16"/>
-        <m/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="RPS Avg" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="65383" maxValue="1514942"/>
+    <cacheField name="RPS Avg" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51290" maxValue="1514942"/>
     </cacheField>
     <cacheField name="Latency Avg" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -5073,491 +5775,626 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42285.933490393516" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="10">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L11" sheet="ASP.NET 5 Results"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-09-09T00:00:00" maxDate="2015-10-09T00:00:00" count="5">
-        <d v="2015-09-09T00:00:00"/>
-        <d v="2015-09-25T00:00:00"/>
-        <d v="2015-09-30T00:00:00"/>
-        <d v="2015-10-06T00:00:00"/>
-        <d v="2015-10-08T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Benchmark" numFmtId="0">
-      <sharedItems count="1">
-        <s v="plaintext"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Machine" numFmtId="14">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Platform" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Windows Server 2012"/>
-        <s v="Linux"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Runtime" numFmtId="0">
-      <sharedItems count="3">
-        <s v="CLR"/>
-        <s v="Mono"/>
-        <s v="CoreCLR"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Architecture" numFmtId="0">
-      <sharedItems count="3">
-        <s v="x86"/>
-        <s v="n/a"/>
-        <s v="x64"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Server" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Kestrel"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Connections" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="256" maxValue="1024"/>
-    </cacheField>
-    <cacheField name="wrk Threads" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
-    </cacheField>
-    <cacheField name="Duration (secs)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
-    </cacheField>
-    <cacheField name="Pipeline Depth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16" count="1">
-        <n v="16"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="RPS Avg" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="66862" maxValue="443528"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="CLR"/>
-    <s v="x86"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
     <x v="0"/>
-    <n v="443528"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr2"/>
     <x v="1"/>
-    <s v="Windows Server 2012"/>
-    <s v="CLR"/>
-    <s v="x86"/>
-    <m/>
-    <m/>
-    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr2"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="CLR"/>
-    <s v="x86"/>
-    <n v="512"/>
-    <n v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1024"/>
+    <n v="32"/>
     <n v="10"/>
-    <x v="2"/>
-    <n v="107315"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Windows Server 2012"/>
-    <s v="CLR"/>
-    <s v="x86"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="6"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsv2"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="CLR"/>
-    <s v="x86"/>
+    <x v="2"/>
+    <x v="0"/>
     <n v="512"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="2"/>
-    <n v="65383"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="10"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsv2"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="V8"/>
-    <s v="x64"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="perfsv2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="128"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="2"/>
-    <n v="93000"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="13"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="V8"/>
-    <s v="x64"/>
-    <n v="1024"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="144118"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="V8"/>
-    <s v="x64"/>
+    <x v="0"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="14"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="perfsvr"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="512"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
     <x v="2"/>
     <x v="3"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="V8"/>
-    <s v="x64"/>
-    <n v="1024"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="Java"/>
-    <s v="x64"/>
-    <n v="1024"/>
-    <n v="32"/>
-    <n v="10"/>
     <x v="2"/>
-    <n v="176509"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="Windows Server 2012"/>
-    <s v="Java"/>
-    <s v="x64"/>
-    <n v="1024"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="1514942"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="19"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="51379"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Windows Server 2012"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="66854"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="51290"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="57843"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="57792"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="75632"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="102730"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="512"/>
     <n v="32"/>
     <n v="10"/>
     <x v="0"/>
-    <n v="169984"/>
+    <n v="123808"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="512"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="0"/>
-    <n v="273000"/>
+    <x v="1"/>
+    <n v="124262"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Linux"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="131519"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1024"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="176509"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Linux"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="512"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="0"/>
-    <n v="391000"/>
+    <x v="1"/>
+    <n v="319007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="443528"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="435000"/>
-  </r>
-  <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="perfsvr2"/>
+    <s v="Windows Server 2012"/>
+    <x v="3"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="66862"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="perfsvr2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
     <n v="1024"/>
     <n v="32"/>
     <n v="10"/>
-    <x v="0"/>
-    <n v="221495"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="443528"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="443083"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="428871"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <s v="perfsvr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="256"/>
-    <n v="32"/>
-    <n v="10"/>
-    <x v="0"/>
-    <n v="421353"/>
+    <x v="1"/>
+    <n v="1514942"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A5:E17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="5">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -5574,10 +6411,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="7">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item x="3"/>
-        <item x="1"/>
         <item m="1" x="5"/>
         <item x="4"/>
         <item t="default"/>
@@ -5600,17 +6437,29 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="2"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
@@ -5629,12 +6478,24 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
@@ -5648,26 +6509,55 @@
     <i r="1">
       <x v="3"/>
     </i>
-    <i t="grand">
+  </rowItems>
+  <colFields count="2">
+    <field x="9"/>
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="2" hier="-1"/>
-    <pageField fld="9" item="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="RPS" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="RPS" fld="10" subtotal="average" baseField="1" baseItem="1"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5683,50 +6573,59 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A6:G15" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="6">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="2">
+      <items count="4">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
         <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="2">
+      <items count="4">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5734,12 +6633,38 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="2">
+      <items count="4">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="12"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -5760,8 +6685,8 @@
     <i>
       <x v="4"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i>
+      <x v="5"/>
     </i>
   </rowItems>
   <colFields count="3">
@@ -5801,79 +6726,148 @@
     <pageField fld="10" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of RPS Avg" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Average of RPS Avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="11">
+    <chartFormat chart="0" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="32" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="33" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="34" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="0" format="35" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -5888,52 +6882,16 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="0" format="40" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -6212,117 +7170,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="21.90625" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" t="str">
-        <f>CONCATENATE(B1, " ", B4)</f>
-        <v>plaintext RPS</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9">
+        <v>57843</v>
+      </c>
+      <c r="C8" s="9">
+        <v>51379</v>
+      </c>
+      <c r="D8" s="9">
+        <v>57792</v>
+      </c>
+      <c r="E8" s="9">
+        <v>51290</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9">
+        <v>57843</v>
+      </c>
+      <c r="C9" s="9">
+        <v>51379</v>
+      </c>
+      <c r="D9" s="9">
+        <v>57792</v>
+      </c>
+      <c r="E9" s="9">
+        <v>51290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9">
-        <v>144118</v>
-      </c>
+      <c r="B10" s="9">
+        <v>117124.5</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9">
-        <v>144118</v>
-      </c>
+      <c r="B11" s="9">
+        <v>117124.5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9">
+        <v>123808</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>124262</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>123808</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>124262</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B14" s="9">
+        <v>75632</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>319007</v>
+      </c>
+      <c r="E14" s="9">
         <v>443528</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B15" s="9">
+        <v>75632</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>319007</v>
+      </c>
+      <c r="E15" s="9">
         <v>443528</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B16" s="9">
+        <v>176509</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
         <v>1514942</v>
       </c>
+      <c r="E16" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B17" s="9">
+        <v>176509</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
         <v>1514942</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2102588</v>
-      </c>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6332,36 +7392,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.54296875" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -6426,7 +7487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6446,7 +7507,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="13">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -6458,24 +7519,24 @@
         <v>1</v>
       </c>
       <c r="K2" s="11">
-        <v>65383</v>
+        <v>51379</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -6493,15 +7554,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>93000</v>
+        <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -6516,27 +7577,27 @@
         <v>9</v>
       </c>
       <c r="G4" s="13">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K4" s="11">
-        <v>107315</v>
+        <v>51290</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -6545,13 +7606,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="13">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -6560,18 +7621,18 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K5" s="11">
-        <v>144118</v>
+        <v>57843</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -6580,13 +7641,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="13">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -6595,13 +7656,13 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K6" s="11">
-        <v>176509</v>
+        <v>57792</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -6618,7 +7679,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="13">
         <v>256</v>
@@ -6630,18 +7691,18 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K7" s="11">
-        <v>443528</v>
+        <v>75632</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -6650,13 +7711,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="13">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -6665,33 +7726,48 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K8" s="11">
-        <v>1514942</v>
+        <v>102730</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>512</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
+      <c r="K9" s="11">
+        <v>123808</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6699,19 +7775,34 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>512</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10" s="11">
+        <v>124262</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6722,7 +7813,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -6730,13 +7821,28 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
+      <c r="G11" s="13">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>131519</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -6745,16 +7851,141 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
+      <c r="G12" s="13">
+        <v>1024</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>176509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="13">
+        <v>512</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13" s="11">
+        <v>319007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13">
+        <v>256</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14" s="11">
+        <v>443528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1024</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1514942</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U12">
+  <autoFilter ref="A1:U16">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="plaintext"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:U12">
-      <sortCondition ref="K1"/>
+      <sortCondition ref="K1:K13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6767,29 +7998,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +8028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -6805,7 +8036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -6813,15 +8044,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -6829,7 +8060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -6843,7 +8074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -6866,7 +8097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>42256</v>
       </c>
@@ -6879,7 +8110,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>42272</v>
       </c>
@@ -6892,7 +8123,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>42277</v>
       </c>
@@ -6905,7 +8136,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>42283</v>
       </c>
@@ -6918,7 +8149,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>42285</v>
       </c>
@@ -6941,28 +8172,18 @@
         <v>443528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>47</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>42286</v>
       </c>
       <c r="B15" s="9">
-        <v>221495</v>
-      </c>
-      <c r="C15" s="9">
-        <v>66862</v>
-      </c>
-      <c r="D15" s="9">
-        <v>421353</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1697855</v>
-      </c>
-      <c r="F15" s="9">
-        <v>443083</v>
-      </c>
-      <c r="G15" s="9">
-        <v>443528</v>
-      </c>
+        <v>319007</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6972,34 +8193,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="1" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="11" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.54296875" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7067,7 +8288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42256</v>
       </c>
@@ -7101,11 +8322,11 @@
       <c r="K2">
         <v>16</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="11">
         <v>169984</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42272</v>
       </c>
@@ -7139,11 +8360,11 @@
       <c r="K3">
         <v>16</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="11">
         <v>273000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42277</v>
       </c>
@@ -7177,11 +8398,11 @@
       <c r="K4">
         <v>16</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="11">
         <v>391000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42283</v>
       </c>
@@ -7215,11 +8436,11 @@
       <c r="K5">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="11">
         <v>435000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42285</v>
       </c>
@@ -7253,7 +8474,7 @@
       <c r="K6">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="11">
         <v>66862</v>
       </c>
       <c r="M6">
@@ -7269,7 +8490,7 @@
         <v>0.8085</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42285</v>
       </c>
@@ -7303,7 +8524,7 @@
       <c r="K7">
         <v>16</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="11">
         <v>221495</v>
       </c>
       <c r="M7">
@@ -7319,7 +8540,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42285</v>
       </c>
@@ -7353,7 +8574,7 @@
       <c r="K8">
         <v>16</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="11">
         <v>443528</v>
       </c>
       <c r="M8">
@@ -7369,7 +8590,7 @@
         <v>0.63549999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42285</v>
       </c>
@@ -7403,7 +8624,7 @@
       <c r="K9">
         <v>16</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="11">
         <v>443083</v>
       </c>
       <c r="M9">
@@ -7419,7 +8640,7 @@
         <v>0.63070000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42285</v>
       </c>
@@ -7453,7 +8674,7 @@
       <c r="K10">
         <v>16</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="11">
         <v>428871</v>
       </c>
       <c r="M10">
@@ -7469,7 +8690,7 @@
         <v>0.6341</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42285</v>
       </c>
@@ -7503,7 +8724,7 @@
       <c r="K11">
         <v>16</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="11">
         <v>421353</v>
       </c>
       <c r="M11">
@@ -7517,6 +8738,456 @@
       </c>
       <c r="P11" s="5">
         <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>512</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>93425</v>
+      </c>
+      <c r="M12">
+        <v>5.56</v>
+      </c>
+      <c r="N12">
+        <v>4.58</v>
+      </c>
+      <c r="O12">
+        <v>213.16</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.99590000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13" s="11">
+        <v>319007</v>
+      </c>
+      <c r="M13">
+        <v>14.35</v>
+      </c>
+      <c r="N13">
+        <v>8.64</v>
+      </c>
+      <c r="O13">
+        <v>238.64</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.68489999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>64669</v>
+      </c>
+      <c r="M14">
+        <v>1.98</v>
+      </c>
+      <c r="N14">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="O14">
+        <v>17.11</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>256</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>76503</v>
+      </c>
+      <c r="M15">
+        <v>3.37</v>
+      </c>
+      <c r="N15">
+        <v>0.88</v>
+      </c>
+      <c r="O15">
+        <v>19.13</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>256</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>66854</v>
+      </c>
+      <c r="M16">
+        <v>3.83</v>
+      </c>
+      <c r="N16">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="O16">
+        <v>19.07</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.95440000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>512</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" s="11">
+        <v>123808</v>
+      </c>
+      <c r="M17">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="N17">
+        <v>19.25</v>
+      </c>
+      <c r="O17">
+        <v>227.58</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.60029999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>512</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>124262</v>
+      </c>
+      <c r="M18">
+        <v>4.46</v>
+      </c>
+      <c r="N18">
+        <v>3.22</v>
+      </c>
+      <c r="O18">
+        <v>143.5</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.93289999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>512</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19" s="11">
+        <v>119824</v>
+      </c>
+      <c r="M19">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="N19">
+        <v>17.23</v>
+      </c>
+      <c r="O19">
+        <v>122.9</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>512</v>
+      </c>
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11">
+        <v>119546</v>
+      </c>
+      <c r="M20">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="N20">
+        <v>1.85</v>
+      </c>
+      <c r="O20">
+        <v>67.08</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.88519999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7534,28 +9205,28 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7614,7 +9285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId6"/>
-    <pivotCache cacheId="78" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -318,7 +318,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -381,7 +380,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
@@ -419,9 +417,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -530,6 +526,36 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -542,7 +568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -563,7 +589,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -605,7 +631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -638,7 +664,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,7 +685,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -701,7 +727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -722,7 +748,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,7 +769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -785,7 +811,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -815,7 +841,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +862,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -878,7 +904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latest (Pivot)'!$I$5</c:f>
+              <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1027,7 +1053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1358,10 +1383,10 @@
                   <c:v>176509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>319007</c:v>
+                  <c:v>409856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>443528</c:v>
+                  <c:v>505350</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1514942</c:v>
@@ -1614,7 +1639,7 @@
                         <c:v>1024</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>512</c:v>
+                        <c:v>256</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>256</c:v>
@@ -1638,7 +1663,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$H$1</c15:sqref>
@@ -1701,7 +1726,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1723,7 +1748,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
@@ -1815,7 +1840,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$H$2:$H$15</c15:sqref>
@@ -1867,7 +1892,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FEEB-41F9-921F-AD6E752578BD}"/>
                   </c:ext>
@@ -1880,7 +1905,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$I$1</c15:sqref>
@@ -1943,7 +1968,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1965,7 +1990,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
@@ -2057,7 +2082,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$I$2:$I$15</c15:sqref>
@@ -2109,7 +2134,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FEEB-41F9-921F-AD6E752578BD}"/>
                   </c:ext>
@@ -2122,7 +2147,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$J$1</c15:sqref>
@@ -2185,7 +2210,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2207,7 +2232,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
@@ -2299,7 +2324,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latest!$J$2:$J$15</c15:sqref>
@@ -2351,7 +2376,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FEEB-41F9-921F-AD6E752578BD}"/>
                   </c:ext>
@@ -2536,6 +2561,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2713,6 +2741,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2728,6 +2759,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2743,6 +2777,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2758,6 +2795,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2773,6 +2813,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2788,6 +2831,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2803,6 +2849,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2818,6 +2867,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2833,6 +2885,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2848,6 +2903,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2863,6 +2921,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2878,6 +2939,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2893,6 +2957,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2908,6 +2975,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2923,6 +2993,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2938,6 +3011,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2953,6 +3029,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2968,6 +3047,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2983,6 +3065,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2998,6 +3083,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3013,6 +3101,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3028,6 +3119,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3043,6 +3137,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3058,6 +3155,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3073,6 +3173,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3088,6 +3191,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3103,6 +3209,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3118,6 +3227,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3148,6 +3260,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3162,6 +3277,84 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -3751,7 +3944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6388,7 +6580,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A5:E17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6537,7 +6729,7 @@
   <dataFields count="1">
     <dataField name="RPS" fld="10" subtotal="average" baseField="1" baseItem="1"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6562,6 +6754,36 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6573,7 +6795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A6:G15" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -6728,7 +6950,7 @@
   <dataFields count="1">
     <dataField name="Average of RPS Avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="16">
     <chartFormat chart="0" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
@@ -6893,6 +7115,96 @@
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -7396,7 +7708,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7892,7 +8204,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="13">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H13">
         <v>32</v>
@@ -7904,7 +8216,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="11">
-        <v>319007</v>
+        <v>409856</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -7924,7 +8236,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="13">
         <v>256</v>
@@ -7939,7 +8251,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="11">
-        <v>443528</v>
+        <v>505350</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -8193,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9188,6 +9500,106 @@
       </c>
       <c r="P20" s="5">
         <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>256</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21" s="11">
+        <v>505350</v>
+      </c>
+      <c r="M21">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>21.35</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.47989999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>256</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22" s="11">
+        <v>409856</v>
+      </c>
+      <c r="M22">
+        <v>5.96</v>
+      </c>
+      <c r="N22">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="O22">
+        <v>77.38</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.81479999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\GitHub\aspnet\benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Latest (Pivot)" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ASP.NET 5 Results'!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="53" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -128,9 +128,6 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>Scala</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -192,6 +189,15 @@
   </si>
   <si>
     <t>Average of RPS Avg</t>
+  </si>
+  <si>
+    <t>Scala - Plain</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Netty</t>
   </si>
 </sst>
 </file>
@@ -318,6 +324,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -591,7 +598,7 @@
             <c:multiLvlStrRef>
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ASP.NET 4.6</c:v>
@@ -606,7 +613,10 @@
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -623,7 +633,10 @@
                     <c:v>Kestrel</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -634,7 +647,7 @@
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>57843</c:v>
                 </c:pt>
@@ -645,10 +658,13 @@
                   <c:v>123808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75632</c:v>
+                  <c:v>168005</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>176509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +703,7 @@
             <c:multiLvlStrRef>
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ASP.NET 4.6</c:v>
@@ -702,7 +718,10 @@
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -719,7 +738,10 @@
                     <c:v>Kestrel</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -730,7 +752,7 @@
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>51379</c:v>
                 </c:pt>
@@ -771,7 +793,7 @@
             <c:multiLvlStrRef>
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ASP.NET 4.6</c:v>
@@ -786,7 +808,10 @@
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -803,7 +828,10 @@
                     <c:v>Kestrel</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -814,7 +842,7 @@
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>57792</c:v>
                 </c:pt>
@@ -822,10 +850,13 @@
                   <c:v>124262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>319007</c:v>
+                  <c:v>440958</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1514942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2808515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,7 +895,7 @@
             <c:multiLvlStrRef>
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ASP.NET 4.6</c:v>
@@ -879,7 +910,10 @@
                     <c:v>ASP.NET 5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -896,7 +930,10 @@
                     <c:v>Kestrel</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Scala</c:v>
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Netty</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -907,12 +944,9 @@
               <c:f>'Latest (Pivot)'!$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>51290</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>443528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,6 +1087,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,7 +1217,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Latest!$K$1</c:f>
@@ -1261,97 +1296,301 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c:f>
-              <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>ASP.NET 4.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ASP.NET 4.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ASP.NET 4.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ASP.NET 4.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ASP.NET 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NodeJS</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ASP.NET 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ASP.NET 5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NodeJS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scala</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ASP.NET 5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ASP.NET 5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Scala</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Latest!$A$2:$F$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>x86</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x86</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>x64</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CLR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>V8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CoreCLR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Linux</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Linux</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Windows Server 2012</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>plaintext</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>IIS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>WebListener</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Node</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Kestrel</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Netty</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Netty</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ASP.NET 4.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NodeJS</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>ASP.NET 5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Scala - Plain</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Netty</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Netty</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Latest!$K$2:$K$15</c:f>
+              <c:f>Latest!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>51379</c:v>
                 </c:pt>
@@ -1365,7 +1604,7 @@
                   <c:v>57792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75632</c:v>
+                  <c:v>168005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>102730</c:v>
@@ -1383,13 +1622,19 @@
                   <c:v>176509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409856</c:v>
+                  <c:v>390420</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>505350</c:v>
+                  <c:v>491496</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1514942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>447993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2808515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,978 +1658,7 @@
         <c:overlap val="100"/>
         <c:axId val="624117456"/>
         <c:axId val="624119752"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Connections</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$G$2:$G$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-FEEB-41F9-921F-AD6E752578BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>wrk Threads</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$H$2:$H$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>32</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-FEEB-41F9-921F-AD6E752578BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$I$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Duration</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$I$2:$I$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-FEEB-41F9-921F-AD6E752578BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$J$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Pipeline Depth</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Latest!$A$2:$A$15,Latest!$J$2:$J$15)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>ASP.NET 4.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>NodeJS</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>ASP.NET 5</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>Scala</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Latest!$J$2:$J$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-FEEB-41F9-921F-AD6E752578BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="624117456"/>
@@ -3944,6 +3218,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5693,13 +4968,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5864,27 +5139,28 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42286.759373958332" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42317.688417708334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:U15" sheet="Latest"/>
+    <worksheetSource ref="A1:U17" sheet="Latest"/>
   </cacheSource>
   <cacheFields count="21">
     <cacheField name="Stack" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="ASP.NET 4.6"/>
         <s v="ASP.NET 5"/>
         <s v="NodeJS"/>
-        <s v="Scala"/>
+        <s v="Scala - Plain"/>
+        <s v="Netty"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Server" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems count="6">
         <s v="IIS"/>
         <s v="Kestrel"/>
         <s v="Node"/>
         <s v="WebListener"/>
-        <s v="Scala"/>
-        <m u="1"/>
+        <s v="Plain"/>
+        <s v="Netty"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Benchmark" numFmtId="0">
@@ -5926,7 +5202,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="RPS Avg" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51290" maxValue="1514942"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51290" maxValue="2808515"/>
     </cacheField>
     <cacheField name="Latency Avg" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6253,7 +5529,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6380,7 +5656,7 @@
     <n v="32"/>
     <n v="10"/>
     <x v="0"/>
-    <n v="75632"/>
+    <n v="168005"/>
     <m/>
     <m/>
     <m/>
@@ -6514,11 +5790,11 @@
     <s v="Linux"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="512"/>
+    <n v="256"/>
     <n v="32"/>
     <n v="10"/>
     <x v="1"/>
-    <n v="319007"/>
+    <n v="390420"/>
     <m/>
     <m/>
     <m/>
@@ -6536,12 +5812,12 @@
     <x v="0"/>
     <s v="Windows Server 2012"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
     <x v="1"/>
-    <n v="443528"/>
+    <n v="491496"/>
     <m/>
     <m/>
     <m/>
@@ -6576,19 +5852,66 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="447993"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Windows Server 2012"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="256"/>
+    <n v="32"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="2808515"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A5:E17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A5:E19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6607,8 +5930,8 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="5"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6670,7 +5993,7 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -6696,10 +6019,16 @@
       <x v="1"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -7482,34 +6811,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -7517,23 +6846,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -7541,9 +6870,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -7558,9 +6887,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9">
         <v>57843</v>
@@ -7575,7 +6904,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -7592,9 +6921,9 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9">
         <v>117124.5</v>
@@ -7603,7 +6932,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -7614,9 +6943,9 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9">
         <v>123808</v>
@@ -7627,7 +6956,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -7640,39 +6969,35 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9">
-        <v>75632</v>
+        <v>168005</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9">
-        <v>319007</v>
-      </c>
-      <c r="E14" s="9">
-        <v>443528</v>
-      </c>
+        <v>440958</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="9">
-        <v>75632</v>
+        <v>168005</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
-        <v>319007</v>
-      </c>
-      <c r="E15" s="9">
-        <v>443528</v>
-      </c>
+        <v>440958</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B16" s="9">
         <v>176509</v>
@@ -7683,9 +7008,9 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9">
         <v>176509</v>
@@ -7695,6 +7020,32 @@
         <v>1514942</v>
       </c>
       <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9">
+        <v>447993</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <v>2808515</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9">
+        <v>447993</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>2808515</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7705,41 +7056,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.54296875" customWidth="1"/>
+    <col min="21" max="21" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -7799,12 +7150,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -7834,12 +7185,12 @@
         <v>51379</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -7848,7 +7199,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -7869,12 +7220,12 @@
         <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7904,12 +7255,12 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -7939,12 +7290,12 @@
         <v>57843</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -7974,12 +7325,12 @@
         <v>57792</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -7988,7 +7339,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -8006,15 +7357,15 @@
         <v>1</v>
       </c>
       <c r="K7" s="11">
-        <v>75632</v>
+        <v>168005</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -8023,7 +7374,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -8044,12 +7395,12 @@
         <v>102730</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -8058,7 +7409,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -8079,12 +7430,12 @@
         <v>123808</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -8093,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -8114,21 +7465,21 @@
         <v>124262</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -8149,12 +7500,12 @@
         <v>131519</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -8163,7 +7514,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -8184,21 +7535,21 @@
         <v>176509</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -8216,15 +7567,15 @@
         <v>16</v>
       </c>
       <c r="K13" s="11">
-        <v>409856</v>
+        <v>390420</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -8233,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -8251,15 +7602,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="11">
-        <v>505350</v>
+        <v>491496</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -8268,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -8289,8 +7640,78 @@
         <v>1514942</v>
       </c>
     </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13">
+        <v>256</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>447993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13">
+        <v>256</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2808515</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U16">
+  <autoFilter ref="A1:U17">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="plaintext"/>
@@ -8310,37 +7731,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
     <col min="9" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -8348,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -8356,45 +7777,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -8409,7 +7830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>42256</v>
       </c>
@@ -8422,7 +7843,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>42272</v>
       </c>
@@ -8435,7 +7856,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>42277</v>
       </c>
@@ -8448,7 +7869,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>42283</v>
       </c>
@@ -8461,7 +7882,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>42285</v>
       </c>
@@ -8484,7 +7905,7 @@
         <v>443528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>42286</v>
       </c>
@@ -8505,34 +7926,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.54296875" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8540,7 +7961,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -8552,7 +7973,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -8561,7 +7982,7 @@
         <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -8600,7 +8021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42256</v>
       </c>
@@ -8608,7 +8029,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -8620,7 +8041,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>512</v>
@@ -8638,7 +8059,7 @@
         <v>169984</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42272</v>
       </c>
@@ -8646,7 +8067,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -8658,7 +8079,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>512</v>
@@ -8676,7 +8097,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42277</v>
       </c>
@@ -8684,7 +8105,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -8696,7 +8117,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>512</v>
@@ -8714,7 +8135,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42283</v>
       </c>
@@ -8722,7 +8143,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -8734,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>256</v>
@@ -8752,7 +8173,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42285</v>
       </c>
@@ -8760,19 +8181,19 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>256</v>
@@ -8802,7 +8223,7 @@
         <v>0.8085</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42285</v>
       </c>
@@ -8810,19 +8231,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>1024</v>
@@ -8852,7 +8273,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42285</v>
       </c>
@@ -8860,19 +8281,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>256</v>
@@ -8902,7 +8323,7 @@
         <v>0.63549999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42285</v>
       </c>
@@ -8910,19 +8331,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>256</v>
@@ -8952,7 +8373,7 @@
         <v>0.63070000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42285</v>
       </c>
@@ -8960,7 +8381,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -8972,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>256</v>
@@ -9002,7 +8423,7 @@
         <v>0.6341</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42285</v>
       </c>
@@ -9010,7 +8431,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -9022,7 +8443,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>256</v>
@@ -9052,7 +8473,7 @@
         <v>0.65849999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42286</v>
       </c>
@@ -9060,19 +8481,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>512</v>
@@ -9102,7 +8523,7 @@
         <v>0.99590000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42286</v>
       </c>
@@ -9110,19 +8531,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>512</v>
@@ -9152,7 +8573,7 @@
         <v>0.68489999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42286</v>
       </c>
@@ -9160,19 +8581,19 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>128</v>
@@ -9202,7 +8623,7 @@
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42286</v>
       </c>
@@ -9210,19 +8631,19 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>256</v>
@@ -9252,7 +8673,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42286</v>
       </c>
@@ -9260,19 +8681,19 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>256</v>
@@ -9302,7 +8723,7 @@
         <v>0.95440000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42286</v>
       </c>
@@ -9310,19 +8731,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>512</v>
@@ -9352,7 +8773,7 @@
         <v>0.60029999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42286</v>
       </c>
@@ -9360,19 +8781,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>512</v>
@@ -9402,7 +8823,7 @@
         <v>0.93289999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42286</v>
       </c>
@@ -9410,19 +8831,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>512</v>
@@ -9452,7 +8873,7 @@
         <v>0.52059999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42286</v>
       </c>
@@ -9460,19 +8881,19 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>512</v>
@@ -9502,7 +8923,7 @@
         <v>0.88519999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42314</v>
       </c>
@@ -9510,19 +8931,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>256</v>
@@ -9552,7 +8973,7 @@
         <v>0.47989999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42314</v>
       </c>
@@ -9560,19 +8981,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>256</v>
@@ -9600,6 +9021,306 @@
       </c>
       <c r="P22" s="5">
         <v>0.81479999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>256</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>168005</v>
+      </c>
+      <c r="M23">
+        <v>1.94</v>
+      </c>
+      <c r="N23">
+        <v>2.48</v>
+      </c>
+      <c r="O23">
+        <v>47.24</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.94410000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>256</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24" s="11">
+        <v>491496</v>
+      </c>
+      <c r="M24">
+        <v>8.15</v>
+      </c>
+      <c r="N24">
+        <v>13.45</v>
+      </c>
+      <c r="O24">
+        <v>250.9</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25">
+        <v>256</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>146894</v>
+      </c>
+      <c r="M25">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N25">
+        <v>2.82</v>
+      </c>
+      <c r="O25">
+        <v>48.11</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26">
+        <v>256</v>
+      </c>
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>181885</v>
+      </c>
+      <c r="M26">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N26">
+        <v>3.37</v>
+      </c>
+      <c r="O26">
+        <v>206.18</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>256</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27" s="11">
+        <v>390420</v>
+      </c>
+      <c r="M27">
+        <v>8.49</v>
+      </c>
+      <c r="N27">
+        <v>7.98</v>
+      </c>
+      <c r="O27">
+        <v>223.21</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.86619999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>256</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>131819</v>
+      </c>
+      <c r="M28">
+        <v>2.62</v>
+      </c>
+      <c r="N28">
+        <v>2.88</v>
+      </c>
+      <c r="O28">
+        <v>36.04</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.86329999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9338,28 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9697,7 +9418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,22 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Latest (Pivot)" sheetId="5" r:id="rId1"/>
-    <sheet name="Latest" sheetId="4" r:id="rId2"/>
-    <sheet name="Plaintext" sheetId="8" r:id="rId3"/>
-    <sheet name="JSON" sheetId="9" r:id="rId4"/>
+    <sheet name="Plaintext" sheetId="8" r:id="rId1"/>
+    <sheet name="JSON" sheetId="9" r:id="rId2"/>
+    <sheet name="Single query" sheetId="10" r:id="rId3"/>
+    <sheet name="Multiple queries" sheetId="11" r:id="rId4"/>
+    <sheet name="Fortunes" sheetId="12" r:id="rId5"/>
+    <sheet name="Latest (Pivot)" sheetId="5" r:id="rId6"/>
+    <sheet name="Latest" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">JSON!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Latest!$A$1:$U$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plaintext!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Fortunes!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JSON!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Latest!$A$1:$U$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Multiple queries'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plaintext!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Single query'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +46,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +121,72 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>16 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>64 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>128 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,10 +208,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1,024 concurrency</t>
+          <t>Best performance across all concurrency levels</t>
         </r>
       </text>
     </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Damian Edwards</author>
+  </authors>
+  <commentList>
     <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -150,7 +231,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4.096 concurrency</t>
+          <t>8 concurrency</t>
         </r>
       </text>
     </comment>
@@ -163,11 +244,239 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>16,384 concurrency</t>
+          <t>16 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>64 concurrency</t>
         </r>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>128 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>256 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Best performance across all concurrency levels</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Damian Edwards</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 query/request</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5 queries/request</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10 queries/request</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15 queries/request</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20 queries/request</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Damian Edwards</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>16 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>64 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>128 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>128 concurrency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +651,36 @@
   <si>
     <t>x65</t>
   </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>SQL Server 2014</t>
+  </si>
+  <si>
+    <t>Raw ADO.NET</t>
+  </si>
+  <si>
+    <t>Dapper</t>
+  </si>
+  <si>
+    <t>EF 7</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Raw middleware</t>
+  </si>
+  <si>
+    <t>JSON Library</t>
+  </si>
+  <si>
+    <t>JSON.NET</t>
+  </si>
 </sst>
 </file>
 
@@ -434,168 +773,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3759,7 +3937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A5:E19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -4242,6 +4420,1280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="12">
+        <v>256</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1024</v>
+      </c>
+      <c r="I1" s="12">
+        <v>4096</v>
+      </c>
+      <c r="J1" s="12">
+        <v>16384</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="13">
+        <v>391000</v>
+      </c>
+      <c r="K2" s="13">
+        <f>MAX(G2:J2)</f>
+        <v>391000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="13">
+        <v>391000</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K14" si="0">MAX(G3:J3)</f>
+        <v>391000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="13">
+        <v>391000</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="0"/>
+        <v>391000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="13">
+        <v>66862</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="K5" s="13">
+        <f t="shared" si="0"/>
+        <v>66862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>221495</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
+        <v>221495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="13">
+        <v>443083</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>443083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="13">
+        <v>123808</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" ref="K8" si="1">MAX(G8:J8)</f>
+        <v>123808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="13">
+        <v>319007</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>319007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="13">
+        <v>409856</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>409856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="13">
+        <v>505350</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>505350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="13">
+        <v>390420</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
+        <v>390420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="13">
+        <v>491496</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
+        <v>491496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9">
+        <v>738279</v>
+      </c>
+      <c r="H14" s="13">
+        <v>743123</v>
+      </c>
+      <c r="I14" s="9">
+        <v>724844</v>
+      </c>
+      <c r="J14" s="9">
+        <v>713901</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
+        <v>743123</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:J13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11" max="13" width="9" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="12">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12">
+        <v>64</v>
+      </c>
+      <c r="L1" s="12">
+        <v>128</v>
+      </c>
+      <c r="M1" s="12">
+        <v>256</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="L2" s="9">
+        <v>64669</v>
+      </c>
+      <c r="N2" s="13">
+        <f>MAX(H2:M2)</f>
+        <v>64669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="M3" s="9">
+        <v>66854</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N6" si="0">MAX(H3:M3)</f>
+        <v>66854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="M4" s="9">
+        <v>131819</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="0"/>
+        <v>131819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="M5" s="9">
+        <v>146894</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="0"/>
+        <v>146894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9">
+        <v>63530</v>
+      </c>
+      <c r="I6" s="9">
+        <v>99050</v>
+      </c>
+      <c r="J6" s="9">
+        <v>129971</v>
+      </c>
+      <c r="K6" s="9">
+        <v>148262</v>
+      </c>
+      <c r="L6" s="9">
+        <v>156589</v>
+      </c>
+      <c r="M6" s="9">
+        <v>161392</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="0"/>
+        <v>161392</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1">
+    <sortState ref="A2:J13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12">
+        <v>64</v>
+      </c>
+      <c r="L1" s="12">
+        <v>128</v>
+      </c>
+      <c r="M1" s="12">
+        <v>256</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="9">
+        <v>10748</v>
+      </c>
+      <c r="I2" s="9">
+        <v>19233</v>
+      </c>
+      <c r="J2" s="9">
+        <v>23482</v>
+      </c>
+      <c r="K2" s="9">
+        <v>23843</v>
+      </c>
+      <c r="L2" s="9">
+        <v>23624</v>
+      </c>
+      <c r="M2" s="9">
+        <v>24301</v>
+      </c>
+      <c r="N2" s="13">
+        <f t="shared" ref="N2" si="0">MAX(H2:M2)</f>
+        <v>24301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="9">
+        <v>10547</v>
+      </c>
+      <c r="I3" s="9">
+        <v>18570</v>
+      </c>
+      <c r="J3" s="9">
+        <v>22397</v>
+      </c>
+      <c r="K3" s="9">
+        <v>22730</v>
+      </c>
+      <c r="L3" s="9">
+        <v>22747</v>
+      </c>
+      <c r="M3" s="9">
+        <v>22808</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N4" si="1">MAX(H3:M3)</f>
+        <v>22808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8994</v>
+      </c>
+      <c r="I4" s="9">
+        <v>12607</v>
+      </c>
+      <c r="J4" s="9">
+        <v>17897</v>
+      </c>
+      <c r="K4" s="9">
+        <v>18197</v>
+      </c>
+      <c r="L4" s="9">
+        <v>17812</v>
+      </c>
+      <c r="M4" s="9">
+        <v>17957</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="1"/>
+        <v>18197</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12">
+        <v>15</v>
+      </c>
+      <c r="L1" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="9">
+        <v>22478</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4667</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2344</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1553</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="9">
+        <v>22237</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4600</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2309</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1534</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9">
+        <v>16846</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3961</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2023</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1340</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12">
+        <v>16</v>
+      </c>
+      <c r="K1" s="12">
+        <v>32</v>
+      </c>
+      <c r="L1" s="12">
+        <v>64</v>
+      </c>
+      <c r="M1" s="12">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12">
+        <v>256</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9575</v>
+      </c>
+      <c r="J2" s="9">
+        <v>14168</v>
+      </c>
+      <c r="K2" s="9">
+        <v>19034</v>
+      </c>
+      <c r="L2" s="9">
+        <v>20058</v>
+      </c>
+      <c r="M2" s="9">
+        <v>20137</v>
+      </c>
+      <c r="N2" s="9">
+        <v>19385</v>
+      </c>
+      <c r="O2" s="13">
+        <f t="shared" ref="O2:O4" si="0">MAX(I2:N2)</f>
+        <v>20137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9">
+        <v>9441</v>
+      </c>
+      <c r="J3" s="9">
+        <v>14099</v>
+      </c>
+      <c r="K3" s="9">
+        <v>19365</v>
+      </c>
+      <c r="L3" s="9">
+        <v>19564</v>
+      </c>
+      <c r="M3" s="9">
+        <v>18836</v>
+      </c>
+      <c r="N3" s="9">
+        <v>19293</v>
+      </c>
+      <c r="O3" s="13">
+        <f t="shared" si="0"/>
+        <v>19564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6949</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10565</v>
+      </c>
+      <c r="K4" s="9">
+        <v>14082</v>
+      </c>
+      <c r="L4" s="9">
+        <v>14858</v>
+      </c>
+      <c r="M4" s="9">
+        <v>14730</v>
+      </c>
+      <c r="N4" s="9">
+        <v>14287</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" si="0"/>
+        <v>14858</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
@@ -4485,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U17"/>
@@ -5157,604 +6609,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="12">
-        <v>256</v>
-      </c>
-      <c r="G1" s="12">
-        <v>1024</v>
-      </c>
-      <c r="H1" s="12">
-        <v>4096</v>
-      </c>
-      <c r="I1" s="12">
-        <v>16384</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42256</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13">
-        <v>391000</v>
-      </c>
-      <c r="J2" s="13">
-        <f>MAX(F2:I2)</f>
-        <v>391000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42272</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13">
-        <v>391000</v>
-      </c>
-      <c r="J3" s="13">
-        <f t="shared" ref="J3:J14" si="0">MAX(F3:I3)</f>
-        <v>391000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13">
-        <v>391000</v>
-      </c>
-      <c r="J4" s="13">
-        <f t="shared" si="0"/>
-        <v>391000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="13">
-        <v>66862</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>66862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>221495</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>221495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13">
-        <v>443083</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>443083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42286</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13">
-        <v>123808</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" ref="J8" si="1">MAX(F8:I8)</f>
-        <v>123808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="13">
-        <v>319007</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>319007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="13">
-        <v>409856</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
-        <v>409856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42314</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="13">
-        <v>505350</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>505350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42317</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="13">
-        <v>390420</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="0"/>
-        <v>390420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42317</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="13">
-        <v>491496</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="0"/>
-        <v>491496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42333</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9">
-        <v>738279</v>
-      </c>
-      <c r="G14" s="13">
-        <v>743123</v>
-      </c>
-      <c r="H14" s="9">
-        <v>724844</v>
-      </c>
-      <c r="I14" s="9">
-        <v>713901</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="0"/>
-        <v>743123</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J1">
-    <sortState ref="A2:J13">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9" max="11" width="9" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="12">
-        <v>8</v>
-      </c>
-      <c r="G1" s="12">
-        <v>16</v>
-      </c>
-      <c r="H1" s="12">
-        <v>32</v>
-      </c>
-      <c r="I1" s="12">
-        <v>64</v>
-      </c>
-      <c r="J1" s="12">
-        <v>128</v>
-      </c>
-      <c r="K1" s="12">
-        <v>256</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42286</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="J2" s="9">
-        <v>64669</v>
-      </c>
-      <c r="L2" s="13">
-        <f>MAX(F2:K2)</f>
-        <v>64669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42286</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="K3" s="9">
-        <v>66854</v>
-      </c>
-      <c r="L3" s="13">
-        <f t="shared" ref="L3:L6" si="0">MAX(F3:K3)</f>
-        <v>66854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42317</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="K4" s="9">
-        <v>131819</v>
-      </c>
-      <c r="L4" s="13">
-        <f t="shared" si="0"/>
-        <v>131819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="K5" s="9">
-        <v>146894</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" si="0"/>
-        <v>146894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42333</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9">
-        <v>63530</v>
-      </c>
-      <c r="G6" s="9">
-        <v>99050</v>
-      </c>
-      <c r="H6" s="9">
-        <v>129971</v>
-      </c>
-      <c r="I6" s="9">
-        <v>148262</v>
-      </c>
-      <c r="J6" s="9">
-        <v>156589</v>
-      </c>
-      <c r="K6" s="9">
-        <v>161392</v>
-      </c>
-      <c r="L6" s="13">
-        <f t="shared" si="0"/>
-        <v>161392</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:J13">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\GitHub\aspnet\benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Plaintext" sheetId="8" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -4421,27 +4421,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="9" customWidth="1"/>
+    <col min="7" max="11" width="8.7265625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42256</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42272</v>
       </c>
@@ -4526,11 +4522,11 @@
         <v>391000</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K14" si="0">MAX(G3:J3)</f>
+        <f t="shared" ref="K3:K15" si="0">MAX(G3:J3)</f>
         <v>391000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42277</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42285</v>
       </c>
@@ -4585,7 +4581,7 @@
         <v>66862</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42285</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>221495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42285</v>
       </c>
@@ -4640,7 +4636,7 @@
         <v>443083</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42286</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>123808</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42286</v>
       </c>
@@ -4694,7 +4690,7 @@
         <v>319007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42314</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>409856</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42314</v>
       </c>
@@ -4748,7 +4744,7 @@
         <v>505350</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42317</v>
       </c>
@@ -4775,7 +4771,7 @@
         <v>390420</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42317</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>491496</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42333</v>
       </c>
@@ -4836,6 +4832,42 @@
       <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>743123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1188521</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1182663</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1169144</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1145456</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
+        <v>1188521</v>
       </c>
     </row>
   </sheetData>
@@ -4858,22 +4890,22 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="9" customWidth="1"/>
     <col min="9" max="9" width="8" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="9" customWidth="1"/>
     <col min="11" max="13" width="9" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +4949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42286</v>
       </c>
@@ -4949,7 +4981,7 @@
         <v>64669</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42286</v>
       </c>
@@ -4981,7 +5013,7 @@
         <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42317</v>
       </c>
@@ -5012,7 +5044,7 @@
         <v>131819</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42317</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>146894</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42333</v>
       </c>
@@ -5108,15 +5140,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5160,7 +5192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5205,7 +5237,7 @@
         <v>24301</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5250,7 +5282,7 @@
         <v>22808</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5310,15 +5342,15 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5394,7 +5426,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5432,7 +5464,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5482,19 +5514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5589,7 +5621,7 @@
         <v>20137</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5637,7 +5669,7 @@
         <v>19564</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5701,28 +5733,28 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5730,7 +5762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5738,7 +5770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -5746,7 +5778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -5754,7 +5786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -5771,7 +5803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -5788,7 +5820,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -5805,7 +5837,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -5816,7 +5848,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -5827,7 +5859,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5840,7 +5872,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -5853,7 +5885,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -5866,7 +5898,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -5879,7 +5911,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -5892,7 +5924,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -5905,7 +5937,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -5918,7 +5950,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -5946,30 +5978,30 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.54296875" customWidth="1"/>
+    <col min="21" max="21" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -6034,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6069,7 +6101,7 @@
         <v>51379</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -6104,7 +6136,7 @@
         <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -6139,7 +6171,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6174,7 +6206,7 @@
         <v>57843</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6209,7 +6241,7 @@
         <v>57792</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -6244,7 +6276,7 @@
         <v>168005</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -6279,7 +6311,7 @@
         <v>102730</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +6346,7 @@
         <v>123808</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6349,7 +6381,7 @@
         <v>124262</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6384,7 +6416,7 @@
         <v>131519</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6419,7 +6451,7 @@
         <v>176509</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6454,7 +6486,7 @@
         <v>390420</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6489,7 +6521,7 @@
         <v>743123</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -6524,7 +6556,7 @@
         <v>1514942</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -6559,7 +6591,7 @@
         <v>447993</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plaintext" sheetId="8" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -4423,8 +4423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4884,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5009,7 +5009,7 @@
         <v>66854</v>
       </c>
       <c r="N3" s="13">
-        <f t="shared" ref="N3:N6" si="0">MAX(H3:M3)</f>
+        <f t="shared" ref="N3:N7" si="0">MAX(H3:M3)</f>
         <v>66854</v>
       </c>
     </row>
@@ -5118,6 +5118,51 @@
       <c r="N6" s="13">
         <f t="shared" si="0"/>
         <v>161392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9">
+        <v>70783</v>
+      </c>
+      <c r="I7" s="9">
+        <v>113953</v>
+      </c>
+      <c r="J7" s="9">
+        <v>161126</v>
+      </c>
+      <c r="K7" s="9">
+        <v>192126</v>
+      </c>
+      <c r="L7" s="9">
+        <v>208008</v>
+      </c>
+      <c r="M7" s="9">
+        <v>214073</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="0"/>
+        <v>214073</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="41" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -625,9 +625,6 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>RPS</t>
-  </si>
-  <si>
     <t>(All)</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>JSON.NET</t>
+  </si>
+  <si>
+    <t>Max of RPS Avg</t>
   </si>
 </sst>
 </file>
@@ -811,11 +811,12 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>RPS</c:v>
+              <c:v>Max of RPS Avg</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1143,13 +1144,13 @@
                   <c:v>57843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117124.5</c:v>
+                  <c:v>102730</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>123808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168005</c:v>
+                  <c:v>228062</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>176509</c:v>
@@ -1341,7 +1342,7 @@
                   <c:v>124262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440958</c:v>
+                  <c:v>1188521</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1514942</c:v>
@@ -1578,6 +1579,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1668,6 +1670,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1765,6 +1768,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2092,7 +2096,7 @@
                   <c:v>57792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168005</c:v>
+                  <c:v>228062</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>102730</c:v>
@@ -2113,7 +2117,7 @@
                   <c:v>390420</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>743123</c:v>
+                  <c:v>1188521</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1514942</c:v>
@@ -3459,7 +3463,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42317.688417708334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Damian Edwards" refreshedDate="42395.726733912037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:U17" sheet="Latest"/>
   </cacheSource>
@@ -3490,7 +3494,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Platform" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Windows Server 2012"/>
+        <s v="Linux"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Runtime" numFmtId="0">
       <sharedItems count="4">
@@ -3569,7 +3576,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="256"/>
@@ -3592,7 +3599,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="256"/>
@@ -3615,7 +3622,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="256"/>
@@ -3638,7 +3645,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="256"/>
@@ -3661,7 +3668,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="256"/>
@@ -3684,14 +3691,14 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
     <x v="0"/>
-    <n v="168005"/>
+    <n v="228062"/>
     <m/>
     <m/>
     <m/>
@@ -3707,7 +3714,7 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="256"/>
@@ -3730,7 +3737,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="512"/>
@@ -3753,7 +3760,7 @@
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="512"/>
@@ -3776,7 +3783,7 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <s v="Linux"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="1"/>
     <n v="256"/>
@@ -3799,7 +3806,7 @@
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="1024"/>
@@ -3822,7 +3829,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="Linux"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <n v="256"/>
@@ -3845,14 +3852,14 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="256"/>
     <n v="32"/>
     <n v="10"/>
     <x v="1"/>
-    <n v="491496"/>
+    <n v="1188521"/>
     <m/>
     <m/>
     <m/>
@@ -3868,7 +3875,7 @@
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="1024"/>
@@ -3891,7 +3898,7 @@
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="256"/>
@@ -3914,7 +3921,7 @@
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
-    <s v="Windows Server 2012"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="256"/>
@@ -3937,8 +3944,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A5:E19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A5:E19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="6">
@@ -3986,7 +3993,13 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -4086,12 +4099,13 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="2" hier="-1"/>
     <pageField fld="4" hier="-1"/>
+    <pageField fld="3" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="RPS" fld="10" subtotal="average" baseField="1" baseItem="1"/>
+    <dataField name="Max of RPS Avg" fld="10" subtotal="max" baseField="0" baseItem="3"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="0" format="7" series="1">
@@ -4424,7 +4438,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4451,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="12">
         <v>256</v>
@@ -4469,7 +4483,7 @@
         <v>16384</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -4477,7 +4491,7 @@
         <v>42256</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -4489,7 +4503,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="13">
         <v>391000</v>
@@ -4504,7 +4518,7 @@
         <v>42272</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -4516,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="13">
         <v>391000</v>
@@ -4531,7 +4545,7 @@
         <v>42277</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4543,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="13">
         <v>391000</v>
@@ -4570,7 +4584,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13">
         <v>66862</v>
@@ -4598,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
@@ -4614,7 +4628,7 @@
         <v>42285</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -4626,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="13">
         <v>443083</v>
@@ -4641,7 +4655,7 @@
         <v>42286</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -4653,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="13">
         <v>123808</v>
@@ -4680,7 +4694,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="13">
         <v>319007</v>
@@ -4704,10 +4718,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13">
         <v>409856</v>
@@ -4722,7 +4736,7 @@
         <v>42314</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -4731,10 +4745,10 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="13">
         <v>505350</v>
@@ -4761,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="13">
         <v>390420</v>
@@ -4776,7 +4790,7 @@
         <v>42317</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -4788,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13">
         <v>491496</v>
@@ -4803,7 +4817,7 @@
         <v>42333</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -4815,7 +4829,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="9">
         <v>738279</v>
@@ -4839,7 +4853,7 @@
         <v>42395</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -4851,9 +4865,9 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="9">
+        <v>58</v>
+      </c>
+      <c r="G15" s="13">
         <v>1188521</v>
       </c>
       <c r="H15" s="9">
@@ -4887,7 +4901,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4919,13 +4933,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="12">
         <v>8</v>
@@ -4946,7 +4960,7 @@
         <v>256</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -4966,10 +4980,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4986,7 +5000,7 @@
         <v>42286</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -4998,10 +5012,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -5030,10 +5044,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="13"/>
       <c r="M4" s="9">
@@ -5049,7 +5063,7 @@
         <v>42317</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -5061,10 +5075,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="13"/>
       <c r="M5" s="9">
@@ -5080,7 +5094,7 @@
         <v>42333</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -5092,10 +5106,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9">
         <v>63530</v>
@@ -5112,7 +5126,7 @@
       <c r="L6" s="9">
         <v>156589</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="13">
         <v>161392</v>
       </c>
       <c r="N6" s="13">
@@ -5125,7 +5139,7 @@
         <v>42395</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -5137,10 +5151,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="9">
         <v>70783</v>
@@ -5157,7 +5171,7 @@
       <c r="L7" s="9">
         <v>208008</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="13">
         <v>214073</v>
       </c>
       <c r="N7" s="13">
@@ -5207,13 +5221,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H1" s="12">
         <v>8</v>
@@ -5234,7 +5248,7 @@
         <v>256</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -5242,7 +5256,7 @@
         <v>42338</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -5254,10 +5268,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="9">
         <v>10748</v>
@@ -5287,7 +5301,7 @@
         <v>42338</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -5299,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="9">
         <v>10547</v>
@@ -5332,7 +5346,7 @@
         <v>42338</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -5344,10 +5358,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9">
         <v>8994</v>
@@ -5409,13 +5423,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H1" s="12">
         <v>1</v>
@@ -5438,7 +5452,7 @@
         <v>42338</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -5450,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="9">
         <v>22478</v>
@@ -5476,7 +5490,7 @@
         <v>42338</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -5488,10 +5502,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="9">
         <v>22237</v>
@@ -5514,7 +5528,7 @@
         <v>42338</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -5526,10 +5540,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9">
         <v>16846</v>
@@ -5585,16 +5599,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="12">
         <v>8</v>
@@ -5615,7 +5629,7 @@
         <v>256</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -5623,7 +5637,7 @@
         <v>42338</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -5635,13 +5649,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="9">
         <v>9575</v>
@@ -5671,7 +5685,7 @@
         <v>42338</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -5683,13 +5697,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="9">
         <v>9441</v>
@@ -5719,7 +5733,7 @@
         <v>42338</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -5731,13 +5745,13 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="9">
         <v>6949</v>
@@ -5772,16 +5786,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
@@ -5799,25 +5813,33 @@
     <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -5887,7 +5909,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="7">
-        <v>117124.5</v>
+        <v>102730</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -5898,7 +5920,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="7">
-        <v>117124.5</v>
+        <v>102730</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5935,11 +5957,11 @@
         <v>33</v>
       </c>
       <c r="B14" s="7">
-        <v>168005</v>
+        <v>228062</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
-        <v>440958</v>
+        <v>1188521</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -5948,17 +5970,17 @@
         <v>27</v>
       </c>
       <c r="B15" s="7">
-        <v>168005</v>
+        <v>228062</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
-        <v>440958</v>
+        <v>1188521</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7">
         <v>176509</v>
@@ -5971,7 +5993,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7">
         <v>176509</v>
@@ -5984,7 +6006,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7">
         <v>447993</v>
@@ -5997,7 +6019,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="7">
         <v>447993</v>
@@ -6318,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="9">
-        <v>168005</v>
+        <v>228062</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -6463,10 +6485,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -6551,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="11">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H14">
         <v>32</v>
@@ -6563,15 +6585,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="9">
-        <v>743123</v>
+        <v>1188521</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -6603,10 +6625,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -6638,10 +6660,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\GitHub\aspnet\benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11900" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Plaintext" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -644,9 +644,6 @@
   </si>
   <si>
     <t>Windows</t>
-  </si>
-  <si>
-    <t>x65</t>
   </si>
   <si>
     <t>ORM</t>
@@ -816,7 +813,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1579,7 +1575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1670,7 +1665,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1768,7 +1762,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3944,7 +3937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A5:E19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -4437,21 +4430,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="11" width="8.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4461,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="12">
         <v>256</v>
@@ -4486,7 +4479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42256</v>
       </c>
@@ -4503,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="13">
         <v>391000</v>
@@ -4513,7 +4506,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42272</v>
       </c>
@@ -4530,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="13">
         <v>391000</v>
@@ -4540,7 +4533,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42277</v>
       </c>
@@ -4557,7 +4550,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="13">
         <v>391000</v>
@@ -4567,7 +4560,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42285</v>
       </c>
@@ -4584,7 +4577,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="13">
         <v>66862</v>
@@ -4595,7 +4588,7 @@
         <v>66862</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42285</v>
       </c>
@@ -4612,7 +4605,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
@@ -4623,7 +4616,7 @@
         <v>221495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42285</v>
       </c>
@@ -4640,7 +4633,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="13">
         <v>443083</v>
@@ -4650,7 +4643,7 @@
         <v>443083</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42286</v>
       </c>
@@ -4667,7 +4660,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="13">
         <v>123808</v>
@@ -4677,7 +4670,7 @@
         <v>123808</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42286</v>
       </c>
@@ -4694,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="13">
         <v>319007</v>
@@ -4704,7 +4697,7 @@
         <v>319007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42314</v>
       </c>
@@ -4718,10 +4711,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="13">
         <v>409856</v>
@@ -4731,7 +4724,7 @@
         <v>409856</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42314</v>
       </c>
@@ -4745,10 +4738,10 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="13">
         <v>505350</v>
@@ -4758,7 +4751,7 @@
         <v>505350</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42317</v>
       </c>
@@ -4775,7 +4768,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13">
         <v>390420</v>
@@ -4785,7 +4778,7 @@
         <v>390420</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42317</v>
       </c>
@@ -4802,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13">
         <v>491496</v>
@@ -4812,7 +4805,7 @@
         <v>491496</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42333</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="9">
         <v>738279</v>
@@ -4848,7 +4841,7 @@
         <v>743123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42395</v>
       </c>
@@ -4865,7 +4858,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="13">
         <v>1188521</v>
@@ -4900,26 +4893,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="8" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="9" customWidth="1"/>
     <col min="11" max="13" width="9" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4936,10 +4929,10 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="12">
         <v>8</v>
@@ -4963,7 +4956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42286</v>
       </c>
@@ -4980,10 +4973,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4995,7 +4988,7 @@
         <v>64669</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42286</v>
       </c>
@@ -5012,10 +5005,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -5027,7 +5020,7 @@
         <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42317</v>
       </c>
@@ -5044,10 +5037,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="13"/>
       <c r="M4" s="9">
@@ -5058,7 +5051,7 @@
         <v>131819</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42317</v>
       </c>
@@ -5075,10 +5068,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="13"/>
       <c r="M5" s="9">
@@ -5089,7 +5082,7 @@
         <v>146894</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42333</v>
       </c>
@@ -5106,10 +5099,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="9">
         <v>63530</v>
@@ -5134,7 +5127,7 @@
         <v>161392</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42395</v>
       </c>
@@ -5151,10 +5144,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="9">
         <v>70783</v>
@@ -5199,15 +5192,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5224,10 +5217,10 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="12">
         <v>8</v>
@@ -5251,7 +5244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5268,10 +5261,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9">
         <v>10748</v>
@@ -5296,7 +5289,7 @@
         <v>24301</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5313,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9">
         <v>10547</v>
@@ -5341,7 +5334,7 @@
         <v>22808</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5358,10 +5351,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="9">
         <v>8994</v>
@@ -5401,15 +5394,15 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5426,10 +5419,10 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="12">
         <v>1</v>
@@ -5447,7 +5440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5464,10 +5457,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9">
         <v>22478</v>
@@ -5485,7 +5478,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5502,10 +5495,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9">
         <v>22237</v>
@@ -5523,7 +5516,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5540,10 +5533,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="9">
         <v>16846</v>
@@ -5577,15 +5570,15 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5602,13 +5595,13 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="12">
         <v>8</v>
@@ -5632,7 +5625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42338</v>
       </c>
@@ -5649,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9">
         <v>9575</v>
@@ -5680,7 +5673,7 @@
         <v>20137</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42338</v>
       </c>
@@ -5697,13 +5690,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="9">
         <v>9441</v>
@@ -5728,7 +5721,7 @@
         <v>19564</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42338</v>
       </c>
@@ -5745,13 +5738,13 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="9">
         <v>6949</v>
@@ -5792,28 +5785,28 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -5821,7 +5814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5829,7 +5822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5837,15 +5830,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -5853,7 +5846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -5870,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -5887,7 +5880,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -5904,7 +5897,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -5915,7 +5908,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -5926,7 +5919,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5939,7 +5932,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -5952,7 +5945,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -5965,7 +5958,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -5978,7 +5971,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -5991,7 +5984,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -6004,7 +5997,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -6017,7 +6010,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -6045,30 +6038,30 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.54296875" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -6133,7 +6126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6168,7 +6161,7 @@
         <v>51379</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -6203,7 +6196,7 @@
         <v>66854</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -6238,7 +6231,7 @@
         <v>51290</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6273,7 +6266,7 @@
         <v>57843</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6308,7 +6301,7 @@
         <v>57792</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -6343,7 +6336,7 @@
         <v>228062</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -6378,7 +6371,7 @@
         <v>102730</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6413,7 +6406,7 @@
         <v>123808</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -6448,7 +6441,7 @@
         <v>124262</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6483,7 +6476,7 @@
         <v>131519</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6518,7 +6511,7 @@
         <v>176509</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6553,7 +6546,7 @@
         <v>390420</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6588,7 +6581,7 @@
         <v>1188521</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6623,7 +6616,7 @@
         <v>1514942</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -6658,7 +6651,7 @@
         <v>447993</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -4431,7 +4431,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,7 +4441,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="11" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\GitHub\aspnet\benchmarks\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11895" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Plaintext" sheetId="8" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plaintext!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Single query'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -46,7 +41,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +217,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +318,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +393,7 @@
     <author>Damian Edwards</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -682,15 +677,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -698,14 +693,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -718,8 +713,15 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -742,7 +744,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -767,11 +769,39 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -784,9 +814,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -838,7 +868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -902,7 +932,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-TW"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -911,7 +941,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1025,7 +1055,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1040,7 +1070,22 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1157,7 +1202,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2B8-4359-9B43-7DD91AC40764}"/>
             </c:ext>
@@ -1247,7 +1292,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C2B8-4359-9B43-7DD91AC40764}"/>
             </c:ext>
@@ -1349,7 +1394,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C2B8-4359-9B43-7DD91AC40764}"/>
             </c:ext>
@@ -1439,7 +1484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-C2B8-4359-9B43-7DD91AC40764}"/>
             </c:ext>
@@ -1455,11 +1500,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="545828712"/>
-        <c:axId val="478992168"/>
+        <c:axId val="271237120"/>
+        <c:axId val="271238656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="545828712"/>
+        <c:axId val="271237120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,10 +1544,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478992168"/>
+        <c:crossAx val="271238656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1510,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478992168"/>
+        <c:axId val="271238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,10 +1603,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545828712"/>
+        <c:crossAx val="271237120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1600,7 +1645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1630,7 +1675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1638,7 +1683,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1651,9 +1696,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1690,7 +1735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1749,7 +1794,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1760,7 +1805,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2124,7 +2169,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FEEB-41F9-921F-AD6E752578BD}"/>
             </c:ext>
@@ -2141,12 +2186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="624117456"/>
-        <c:axId val="624119752"/>
-        <c:extLst/>
+        <c:axId val="271095296"/>
+        <c:axId val="271524224"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="624117456"/>
+        <c:axId val="271095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,10 +2231,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624119752"/>
+        <c:crossAx val="271524224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2197,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="624119752"/>
+        <c:axId val="271524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,10 +2290,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624117456"/>
+        <c:crossAx val="271095296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2286,7 +2331,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4100,7 +4145,7 @@
   <dataFields count="1">
     <dataField name="Max of RPS Avg" fld="10" subtotal="max" baseField="0" baseItem="3"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4151,6 +4196,21 @@
           </reference>
           <reference field="9" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -4420,7 +4480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4428,13 +4488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -4529,7 +4589,7 @@
         <v>391000</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K15" si="0">MAX(G3:J3)</f>
+        <f t="shared" ref="K3:K16" si="0">MAX(G3:J3)</f>
         <v>391000</v>
       </c>
     </row>
@@ -4843,10 +4903,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42395</v>
+        <v>42382</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -4861,18 +4921,45 @@
         <v>57</v>
       </c>
       <c r="G15" s="13">
+        <v>928023</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" ref="K15" si="2">MAX(G15:J15)</f>
+        <v>928023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="13">
         <v>1188521</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>1182663</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>1169144</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>1145456</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>1188521</v>
       </c>
@@ -4883,6 +4970,7 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4897,7 +4985,7 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -5178,6 +5266,7 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5192,7 +5281,7 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
@@ -5381,6 +5470,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5394,7 +5484,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
@@ -5556,6 +5646,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5570,7 +5661,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
@@ -5771,6 +5862,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5785,7 +5877,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -6024,6 +6116,7 @@
       <c r="E19" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6038,7 +6131,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -6689,7 +6782,7 @@
   </sheetData>
   <autoFilter ref="A1:U17">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="plaintext"/>
       </filters>
     </filterColumn>
@@ -6697,6 +6790,7 @@
       <sortCondition ref="K1:K13"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
